--- a/biology/Médecine/Clinical_Neurophysiology/Clinical_Neurophysiology.xlsx
+++ b/biology/Médecine/Clinical_Neurophysiology/Clinical_Neurophysiology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Clinical Neurophysiology est une revue médicale mensuelle à comité de lecture publiée par Elsevier. Elle est créée en 1949 sous le nom d'Electroencephalography and Clinical Neurophysiology et prend son titre actuel en 1999. La revue couvre tous les aspects de la disciple éponyme, la neurophysiologie clinique, en particulier la physiopathologie des maladies du système nerveux périphérique et central.
@@ -513,21 +525,23 @@
           <t>Résumé et indexation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La revue est résumée et indexée dans :
-BIOSIS Previews (en)[1]
+BIOSIS Previews (en)
 Chemical Abstracts
 Current Contents/Clinical Medicine
-Current Contents/Life Sciences[1]
-Index Medicus/MEDLINE/PubMed[2]
-Science Citation Index[1]
+Current Contents/Life Sciences
+Index Medicus/MEDLINE/PubMed
+Science Citation Index
 Embase
 Neuroscience Citation Index (en)
 PASCAL
 Elsevier BIOBASE (en)/Current Awareness in Biological Sciences
 Scopus
-Selon le Journal Citation Reports, la revue avait un facteur d'impact de 3,614 en 2017[3].
+Selon le Journal Citation Reports, la revue avait un facteur d'impact de 3,614 en 2017.
 </t>
         </is>
       </c>
